--- a/DOC/要件定義/経費管理/経費管理概要.xlsx
+++ b/DOC/要件定義/経費管理/経費管理概要.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softtech\git\emsm\DOC\要件定義\経費管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4724D4E1-7E42-4C09-83BB-0B2FC5CC0279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D17193-B6C3-4595-AE59-9C0933713549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="27195" windowHeight="14445" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2824,7 +2824,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
